--- a/amado/src/main/webapp/resources/file/회원 등록 양식.xlsx
+++ b/amado/src/main/webapp/resources/file/회원 등록 양식.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.228.52576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>아이디</t>
   </si>
@@ -151,12 +151,1014 @@
 - 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 201동 101호
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 201동 101호
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>주의사항
+- 아이디는 중복되지 않도록 회원 목록을 확인하여 입력하세요.
+- 비밀번호는 영문자,숫자,특수기호가 혼합된 8~15 글자로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 201동 101호
+     상세주소2: (서교동)
+- 성별은 남성은 0, 여성은 1로 입력하세요.
+- 생년월일은 yyyy-mm-dd 형식으로 입력하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 201동 101호
+     상세주소2: (서교동)
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>주의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 아이디는 중복되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원 목록을 확인하여 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">하세요.
+- 비밀번호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>영문자,숫자,특수기호가 혼합된 8~15 글자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 주소 예시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0611F2"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">     주소: 서울 마포구 월드컵북로 21
+     상세주소1: 201동 101호
+     상세주소2: (서교동)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 성별은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>남성은 0, 여성은 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">로 입력하세요.
+- 생년월일은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>yyyy-mm-dd 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>으로 입력하세요.</t>
+    </r>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>qwer1234$</t>
+  </si>
+  <si>
+    <t>테스트1</t>
+  </si>
+  <si>
+    <t>test1@naver.com</t>
+  </si>
+  <si>
+    <t>서울 마포구 월드컵북로 21</t>
+  </si>
+  <si>
+    <t>201동 101호</t>
+  </si>
+  <si>
+    <t>(서교동)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>qwer1235$</t>
+  </si>
+  <si>
+    <t>qwer1236$</t>
+  </si>
+  <si>
+    <t>qwer1237$</t>
+  </si>
+  <si>
+    <t>qwer1238$</t>
+  </si>
+  <si>
+    <t>qwer1239$</t>
+  </si>
+  <si>
+    <t>qwer1240$</t>
+  </si>
+  <si>
+    <t>qwer1241$</t>
+  </si>
+  <si>
+    <t>qwer1242$</t>
+  </si>
+  <si>
+    <t>qwer1243$</t>
+  </si>
+  <si>
+    <t>qwer1244$</t>
+  </si>
+  <si>
+    <t>qwer1245$</t>
+  </si>
+  <si>
+    <t>qwer1246$</t>
+  </si>
+  <si>
+    <t>qwer1247$</t>
+  </si>
+  <si>
+    <t>qwer1248$</t>
+  </si>
+  <si>
+    <t>qwer1249$</t>
+  </si>
+  <si>
+    <t>qwer1250$</t>
+  </si>
+  <si>
+    <t>테스트2</t>
+  </si>
+  <si>
+    <t>테스트3</t>
+  </si>
+  <si>
+    <t>테스트4</t>
+  </si>
+  <si>
+    <t>테스트5</t>
+  </si>
+  <si>
+    <t>테스트6</t>
+  </si>
+  <si>
+    <t>테스트7</t>
+  </si>
+  <si>
+    <t>테스트8</t>
+  </si>
+  <si>
+    <t>테스트9</t>
+  </si>
+  <si>
+    <t>테스트10</t>
+  </si>
+  <si>
+    <t>테스트11</t>
+  </si>
+  <si>
+    <t>테스트12</t>
+  </si>
+  <si>
+    <t>테스트13</t>
+  </si>
+  <si>
+    <t>테스트14</t>
+  </si>
+  <si>
+    <t>테스트15</t>
+  </si>
+  <si>
+    <t>테스트16</t>
+  </si>
+  <si>
+    <t>테스트17</t>
+  </si>
+  <si>
+    <t>test2@naver.com</t>
+  </si>
+  <si>
+    <t>test3@naver.com</t>
+  </si>
+  <si>
+    <t>test4@naver.com</t>
+  </si>
+  <si>
+    <t>test5@naver.com</t>
+  </si>
+  <si>
+    <t>test6@naver.com</t>
+  </si>
+  <si>
+    <t>test7@naver.com</t>
+  </si>
+  <si>
+    <t>test8@naver.com</t>
+  </si>
+  <si>
+    <t>test9@naver.com</t>
+  </si>
+  <si>
+    <t>test10@naver.com</t>
+  </si>
+  <si>
+    <t>test11@naver.com</t>
+  </si>
+  <si>
+    <t>test12@naver.com</t>
+  </si>
+  <si>
+    <t>test13@naver.com</t>
+  </si>
+  <si>
+    <t>test14@naver.com</t>
+  </si>
+  <si>
+    <t>test15@naver.com</t>
+  </si>
+  <si>
+    <t>test16@naver.com</t>
+  </si>
+  <si>
+    <t>test17@naver.com</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>35704</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="64" formatCode="@"/>
+    <numFmt numFmtId="65" formatCode="General"/>
+    <numFmt numFmtId="66" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="26">
     <font>
       <sz val="11.0"/>
@@ -272,12 +1274,6 @@
       <b/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
     </font>
     <font>
@@ -303,6 +1299,11 @@
       <sz val="18.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF0611F2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -514,7 +1515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -529,7 +1529,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -538,7 +1537,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -547,7 +1545,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -556,7 +1553,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -571,7 +1567,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -586,7 +1581,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -601,7 +1595,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -610,7 +1603,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -621,7 +1613,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -773,14 +1764,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,17 +1780,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -807,14 +1789,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,96 +2149,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="10" max="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="9.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="14" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="11" style="17" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="128.250000" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
+    <row r="1" spans="1:12" ht="209.250000" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="19.500000" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="19.500000" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1234,7 +2244,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
